--- a/Code/Results/Cases/Case_1_102/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_102/res_line/pl_mw.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.319404113657384</v>
+        <v>0.4713212688202191</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.005567083280981322</v>
+        <v>0.001862681134888078</v>
       </c>
       <c r="E2">
-        <v>0.1249409748707393</v>
+        <v>0.09643067662128146</v>
       </c>
       <c r="F2">
-        <v>0.9598638096958183</v>
+        <v>0.5085473922686248</v>
       </c>
       <c r="G2">
-        <v>0.0007377544905898428</v>
+        <v>0.002345227075332708</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>2.5907063976682</v>
+        <v>1.067482939672075</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>4.584988010946674</v>
+        <v>1.547875453301771</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>2.918385828993365</v>
+        <v>1.58785648042624</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.146311693442016</v>
+        <v>0.4140981522994878</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.004827400885160316</v>
+        <v>0.001637195644702771</v>
       </c>
       <c r="E3">
-        <v>0.1113577133224126</v>
+        <v>0.0951427238208673</v>
       </c>
       <c r="F3">
-        <v>0.8297726336468259</v>
+        <v>0.4822099989406752</v>
       </c>
       <c r="G3">
-        <v>0.0007438676986582969</v>
+        <v>0.002349194837688415</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>2.275406444470192</v>
+        <v>0.9705780176217047</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>3.988069403625872</v>
+        <v>1.355775510223609</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>2.520622178248061</v>
+        <v>1.511424509157536</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.040424788833121</v>
+        <v>0.3788171801890883</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.004380537644017579</v>
+        <v>0.001498812952636541</v>
       </c>
       <c r="E4">
-        <v>0.1037198624403644</v>
+        <v>0.09456315371560464</v>
       </c>
       <c r="F4">
-        <v>0.7521787215333688</v>
+        <v>0.4665311414210436</v>
       </c>
       <c r="G4">
-        <v>0.0007477250199659865</v>
+        <v>0.002351759318313542</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>2.084020639683558</v>
+        <v>0.9114280091377651</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>3.622334756340038</v>
+        <v>1.237352577027451</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>2.284121380969651</v>
+        <v>1.466148974409663</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.9973469428913972</v>
+        <v>0.3644039094488107</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.004199933558206581</v>
+        <v>0.001442441067782241</v>
       </c>
       <c r="E5">
-        <v>0.1007684763843493</v>
+        <v>0.09437993358347896</v>
       </c>
       <c r="F5">
-        <v>0.721066083747445</v>
+        <v>0.4602643968378999</v>
       </c>
       <c r="G5">
-        <v>0.0007493240772283813</v>
+        <v>0.00235283672369739</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>2.006516606597955</v>
+        <v>0.8874136321980188</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>3.473414159594597</v>
+        <v>1.188978449266784</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>2.189464316426637</v>
+        <v>1.448110087501249</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.9901975031428663</v>
+        <v>0.3620084432925239</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.004170025666622834</v>
+        <v>0.001433081887332932</v>
       </c>
       <c r="E6">
-        <v>0.1002877074248758</v>
+        <v>0.09435270417393937</v>
       </c>
       <c r="F6">
-        <v>0.7159286573314461</v>
+        <v>0.459231170390197</v>
       </c>
       <c r="G6">
-        <v>0.0007495912701717122</v>
+        <v>0.002353017583713723</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>1.993674662928072</v>
+        <v>0.8834315351695636</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>3.448691133813952</v>
+        <v>1.180939058820002</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>2.173844166583535</v>
+        <v>1.44513944745762</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.03984356848818</v>
+        <v>0.3786229425950296</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.004378096312626312</v>
+        <v>0.00149805261485092</v>
       </c>
       <c r="E7">
-        <v>0.1036794260758569</v>
+        <v>0.09456046852540467</v>
       </c>
       <c r="F7">
-        <v>0.7517571549536797</v>
+        <v>0.4664461315701232</v>
       </c>
       <c r="G7">
-        <v>0.0007477464740709872</v>
+        <v>0.002351773717301109</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>2.082973506443537</v>
+        <v>0.9111037771852892</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>3.620325973155374</v>
+        <v>1.236700651442405</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>2.28283812687269</v>
+        <v>1.465904036652972</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.259623501917616</v>
+        <v>0.4516213585723676</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.005310304633093565</v>
+        <v>0.001784921927969307</v>
       </c>
       <c r="E8">
-        <v>0.1201018502219817</v>
+        <v>0.0959426488858881</v>
       </c>
       <c r="F8">
-        <v>0.9144929798200678</v>
+        <v>0.4993632655622946</v>
       </c>
       <c r="G8">
-        <v>0.0007398414531255004</v>
+        <v>0.002346568604467449</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>2.481489204647687</v>
+        <v>1.033998450626143</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>4.378961274494344</v>
+        <v>1.481739276743127</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>2.779492496373763</v>
+        <v>1.561156618889157</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.695074719240353</v>
+        <v>0.5935937729756802</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.007214520671180225</v>
+        <v>0.002347885896298862</v>
       </c>
       <c r="E9">
-        <v>0.1586727574955766</v>
+        <v>0.1003373583811253</v>
       </c>
       <c r="F9">
-        <v>1.255021356452247</v>
+        <v>0.5678832833093566</v>
       </c>
       <c r="G9">
-        <v>0.0007251103139445587</v>
+        <v>0.002337374159377399</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>3.283960593419707</v>
+        <v>1.277713511473053</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>5.876705091681856</v>
+        <v>1.958399799918084</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>3.825862561279109</v>
+        <v>1.761291367323622</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.019825238144051</v>
+        <v>0.6971673519410047</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.008690487001643987</v>
+        <v>0.002761660278299161</v>
       </c>
       <c r="E10">
-        <v>0.1921669472417875</v>
+        <v>0.1046057654617343</v>
       </c>
       <c r="F10">
-        <v>1.52334708174206</v>
+        <v>0.620737043840478</v>
       </c>
       <c r="G10">
-        <v>0.000714675435627368</v>
+        <v>0.002331229521099414</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>3.891726433695197</v>
+        <v>1.45837596672385</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>6.989475631968219</v>
+        <v>2.306143383950541</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>4.65599347258194</v>
+        <v>1.916787550815457</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.169140647199242</v>
+        <v>0.7441242489681485</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.009387208539969549</v>
+        <v>0.002949923056540626</v>
       </c>
       <c r="E11">
-        <v>0.2088648306749405</v>
+        <v>0.1067763425217478</v>
       </c>
       <c r="F11">
-        <v>1.650647975004418</v>
+        <v>0.6453473143921968</v>
       </c>
       <c r="G11">
-        <v>0.0007099919667572034</v>
+        <v>0.002328565262924213</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>4.173537247628047</v>
+        <v>1.540904482121022</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>7.500013289207004</v>
+        <v>2.463788356980302</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>5.051346756234238</v>
+        <v>1.989433752520029</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.225959640833651</v>
+        <v>0.7618823371220174</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.009655556161451528</v>
+        <v>0.003021216932971527</v>
       </c>
       <c r="E12">
-        <v>0.2154318789052709</v>
+        <v>0.1076314372214568</v>
       </c>
       <c r="F12">
-        <v>1.699729809162221</v>
+        <v>0.6547496273801556</v>
       </c>
       <c r="G12">
-        <v>0.0007082256298996387</v>
+        <v>0.002327575098844085</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>4.281147775942514</v>
+        <v>1.572204416953383</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>7.694117831200231</v>
+        <v>2.523403785311615</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>5.204022856206052</v>
+        <v>2.017223082984287</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.213709525645868</v>
+        <v>0.7580588676837579</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.009597546223719888</v>
+        <v>0.003005862425261796</v>
       </c>
       <c r="E13">
-        <v>0.2140061038360557</v>
+        <v>0.1074457993199331</v>
       </c>
       <c r="F13">
-        <v>1.689118095728816</v>
+        <v>0.6527209595395078</v>
       </c>
       <c r="G13">
-        <v>0.0007086057555897803</v>
+        <v>0.002327787516698064</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>4.257929930395989</v>
+        <v>1.565461293395742</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>7.652276839975258</v>
+        <v>2.510568197024668</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>5.171002303824423</v>
+        <v>2.011225628075351</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.173809341296419</v>
+        <v>0.7455856910940497</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.009409189589188571</v>
+        <v>0.002955788401301618</v>
       </c>
       <c r="E14">
-        <v>0.2094000046361302</v>
+        <v>0.1068460260331037</v>
       </c>
       <c r="F14">
-        <v>1.654667660208943</v>
+        <v>0.646119177935006</v>
       </c>
       <c r="G14">
-        <v>0.0007098465168651685</v>
+        <v>0.002328483426732241</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>4.18237171142124</v>
+        <v>1.543478588321847</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>7.515965912103979</v>
+        <v>2.468694599746811</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>5.06384553291889</v>
+        <v>1.991714360693607</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.149406866669892</v>
+        <v>0.7379424374244081</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.009294432366036887</v>
+        <v>0.002925116927421811</v>
       </c>
       <c r="E15">
-        <v>0.206611494713492</v>
+        <v>0.1064829710947706</v>
       </c>
       <c r="F15">
-        <v>1.633683714118234</v>
+        <v>0.6420862395440707</v>
       </c>
       <c r="G15">
-        <v>0.0007106073943874114</v>
+        <v>0.00232891212822095</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>4.136210703154461</v>
+        <v>1.530019783037915</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>7.432577314236539</v>
+        <v>2.443035140440145</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>4.998608191593121</v>
+        <v>1.97979973506051</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.010103049951113</v>
+        <v>0.6940953544213357</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.008645535024271567</v>
+        <v>0.002749357371222061</v>
       </c>
       <c r="E16">
-        <v>0.191107877278931</v>
+        <v>0.1044685381705079</v>
       </c>
       <c r="F16">
-        <v>1.515143212304167</v>
+        <v>0.6191402327384452</v>
       </c>
       <c r="G16">
-        <v>0.0007149826277612933</v>
+        <v>0.002331406263524889</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>3.873427377820178</v>
+        <v>1.452989345951465</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>6.956210525514166</v>
+        <v>2.295829692187453</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>4.630547234422409</v>
+        <v>1.912078824644368</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.925083519559763</v>
+        <v>0.6671553873597418</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.008254512113680335</v>
+        <v>0.002641541843235728</v>
       </c>
       <c r="E17">
-        <v>0.1819936260597856</v>
+        <v>0.103291528352834</v>
       </c>
       <c r="F17">
-        <v>1.443846691771157</v>
+        <v>0.6052097929921985</v>
       </c>
       <c r="G17">
-        <v>0.0007176816317746412</v>
+        <v>0.002332969807099393</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>3.713671138216739</v>
+        <v>1.405820866799274</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>6.66518669542333</v>
+        <v>2.20538216493091</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>4.409573242386614</v>
+        <v>1.871027112345701</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.876328493241601</v>
+        <v>0.6516452742277181</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.008031926115378951</v>
+        <v>0.002579532580831767</v>
       </c>
       <c r="E18">
-        <v>0.1768865798548234</v>
+        <v>0.1026360698584554</v>
       </c>
       <c r="F18">
-        <v>1.403323710100324</v>
+        <v>0.5972506393104737</v>
       </c>
       <c r="G18">
-        <v>0.0007192401239011579</v>
+        <v>0.002333881449130755</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>3.622277273852831</v>
+        <v>1.378723281700957</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>6.498195107809295</v>
+        <v>2.153307977228252</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>4.284115277987325</v>
+        <v>1.847594744034325</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.859844551296732</v>
+        <v>0.6463912655031265</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.007956936592783848</v>
+        <v>0.002558537960737794</v>
       </c>
       <c r="E19">
-        <v>0.17517970014638</v>
+        <v>0.1024178330734316</v>
       </c>
       <c r="F19">
-        <v>1.389683108979682</v>
+        <v>0.5945649118753238</v>
       </c>
       <c r="G19">
-        <v>0.0007197689045855969</v>
+        <v>0.002334192236870523</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>3.59141401693995</v>
+        <v>1.369554124832575</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>6.441718603148502</v>
+        <v>2.135667854263971</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>4.241907251409998</v>
+        <v>1.83969161940206</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.934118552135487</v>
+        <v>0.6700247450202426</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.008295891203680128</v>
+        <v>0.002653018656982198</v>
       </c>
       <c r="E20">
-        <v>0.1829496293592427</v>
+        <v>0.1034145935009221</v>
       </c>
       <c r="F20">
-        <v>1.451385303081466</v>
+        <v>0.6066871888612866</v>
       </c>
       <c r="G20">
-        <v>0.0007173937004231651</v>
+        <v>0.002332802089239892</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>3.73062548756505</v>
+        <v>1.410838680635095</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>6.696124488228662</v>
+        <v>2.215015774858841</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>4.43292367056597</v>
+        <v>1.875378523730603</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.185521074878466</v>
+        <v>0.7492500067679089</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.009464384191176123</v>
+        <v>0.002970496293382752</v>
       </c>
       <c r="E21">
-        <v>0.2107460119448348</v>
+        <v>0.1070212925339931</v>
       </c>
       <c r="F21">
-        <v>1.664761769274989</v>
+        <v>0.6480560188925608</v>
       </c>
       <c r="G21">
-        <v>0.0007094818965362418</v>
+        <v>0.002328278513700656</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>4.204539613556904</v>
+        <v>1.54993414426562</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>7.555981391082383</v>
+        <v>2.480996119331792</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>5.095236048957076</v>
+        <v>1.997437658612398</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.351465273541976</v>
+        <v>0.8008912528991345</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.01025490420312636</v>
+        <v>0.003178002116694501</v>
       </c>
       <c r="E22">
-        <v>0.2303540059056601</v>
+        <v>0.1095717857874163</v>
       </c>
       <c r="F22">
-        <v>1.809388343208411</v>
+        <v>0.6755770338646556</v>
       </c>
       <c r="G22">
-        <v>0.0007043519212733975</v>
+        <v>0.002325431235317889</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>4.519556258703915</v>
+        <v>1.641121334320758</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>8.122550532250301</v>
+        <v>2.65435448866171</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>5.545606167746087</v>
+        <v>2.078843583671414</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.262730356726308</v>
+        <v>0.7733420679550136</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.009830199285158159</v>
+        <v>0.003067251530165294</v>
       </c>
       <c r="E23">
-        <v>0.2197443599142801</v>
+        <v>0.1081927715060402</v>
       </c>
       <c r="F23">
-        <v>1.731680578578008</v>
+        <v>0.6608437815068413</v>
       </c>
       <c r="G23">
-        <v>0.0007070868478822323</v>
+        <v>0.002326940928146354</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>4.350896093902577</v>
+        <v>1.592427784857506</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>7.819685135559041</v>
+        <v>2.561874270899523</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>5.303481566177595</v>
+        <v>2.035244574471449</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.930033431797852</v>
+        <v>0.6687275768046561</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.008277176871768432</v>
+        <v>0.002647830065903634</v>
       </c>
       <c r="E24">
-        <v>0.1825170089298069</v>
+        <v>0.1033588896620614</v>
       </c>
       <c r="F24">
-        <v>1.447975653436671</v>
+        <v>0.6060191036701212</v>
       </c>
       <c r="G24">
-        <v>0.0007175238528135412</v>
+        <v>0.002332877874887201</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>3.722959027420899</v>
+        <v>1.408570063974196</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>6.682136520711225</v>
+        <v>2.210660652281007</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>4.422362042293628</v>
+        <v>1.873410725215365</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.576591379290107</v>
+        <v>0.555314266893447</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.006688390657838994</v>
+        <v>0.002195555114017367</v>
       </c>
       <c r="E25">
-        <v>0.1474357044772461</v>
+        <v>0.09896687188386721</v>
       </c>
       <c r="F25">
-        <v>1.160114449794847</v>
+        <v>0.5489123345535347</v>
       </c>
       <c r="G25">
-        <v>0.0007290209187093927</v>
+        <v>0.002339753790606802</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>3.064101773384664</v>
+        <v>1.211496843730842</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>5.469848602663717</v>
+        <v>1.829874998367501</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>3.533370756965951</v>
+        <v>1.705687799287432</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_102/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_102/res_line/pl_mw.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.4713212688202191</v>
+        <v>1.319404113657214</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.001862681134888078</v>
+        <v>0.005567083281047047</v>
       </c>
       <c r="E2">
-        <v>0.09643067662128146</v>
+        <v>0.1249409748707393</v>
       </c>
       <c r="F2">
-        <v>0.5085473922686248</v>
+        <v>0.9598638096958041</v>
       </c>
       <c r="G2">
-        <v>0.002345227075332708</v>
+        <v>0.0007377544906460904</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>1.067482939672075</v>
+        <v>2.590706397668214</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>1.547875453301771</v>
+        <v>4.584988010946716</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.58785648042624</v>
+        <v>2.918385828993308</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.4140981522994878</v>
+        <v>1.146311693442186</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.001637195644702771</v>
+        <v>0.00482740088538236</v>
       </c>
       <c r="E3">
-        <v>0.0951427238208673</v>
+        <v>0.1113577133224446</v>
       </c>
       <c r="F3">
-        <v>0.4822099989406752</v>
+        <v>0.8297726336468259</v>
       </c>
       <c r="G3">
-        <v>0.002349194837688415</v>
+        <v>0.0007438676986270938</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.9705780176217047</v>
+        <v>2.275406444470207</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>1.355775510223609</v>
+        <v>3.988069403625829</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.511424509157536</v>
+        <v>2.520622178248061</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.3788171801890883</v>
+        <v>1.040424788832922</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.001498812952636541</v>
+        <v>0.004380537643902116</v>
       </c>
       <c r="E4">
-        <v>0.09456315371560464</v>
+        <v>0.103719862440375</v>
       </c>
       <c r="F4">
-        <v>0.4665311414210436</v>
+        <v>0.7521787215334257</v>
       </c>
       <c r="G4">
-        <v>0.002351759318313542</v>
+        <v>0.0007477250199651631</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.9114280091377651</v>
+        <v>2.084020639683516</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>1.237352577027451</v>
+        <v>3.622334756340038</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.466148974409663</v>
+        <v>2.284121380969623</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.3644039094488107</v>
+        <v>0.9973469428913972</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.001442441067782241</v>
+        <v>0.004199933558144409</v>
       </c>
       <c r="E5">
-        <v>0.09437993358347896</v>
+        <v>0.1007684763843493</v>
       </c>
       <c r="F5">
-        <v>0.4602643968378999</v>
+        <v>0.721066083747445</v>
       </c>
       <c r="G5">
-        <v>0.00235283672369739</v>
+        <v>0.0007493240772577711</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.8874136321980188</v>
+        <v>2.006516606597955</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>1.188978449266784</v>
+        <v>3.473414159594597</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.448110087501249</v>
+        <v>2.189464316426722</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.3620084432925239</v>
+        <v>0.9901975031430652</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.001433081887332932</v>
+        <v>0.004170025666510924</v>
       </c>
       <c r="E6">
-        <v>0.09435270417393937</v>
+        <v>0.1002877074249078</v>
       </c>
       <c r="F6">
-        <v>0.459231170390197</v>
+        <v>0.7159286573314461</v>
       </c>
       <c r="G6">
-        <v>0.002353017583713723</v>
+        <v>0.0007495912701429949</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.8834315351695636</v>
+        <v>1.993674662928086</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>1.180939058820002</v>
+        <v>3.448691133813966</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.44513944745762</v>
+        <v>2.173844166583535</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.3786229425950296</v>
+        <v>1.039843568487953</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.00149805261485092</v>
+        <v>0.004378096312452229</v>
       </c>
       <c r="E7">
-        <v>0.09456046852540467</v>
+        <v>0.1036794260758391</v>
       </c>
       <c r="F7">
-        <v>0.4664461315701232</v>
+        <v>0.7517571549536797</v>
       </c>
       <c r="G7">
-        <v>0.002351773717301109</v>
+        <v>0.0007477464740415218</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.9111037771852892</v>
+        <v>2.08297350644348</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>1.236700651442405</v>
+        <v>3.620325973155332</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.465904036652972</v>
+        <v>2.282838126872662</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.4516213585723676</v>
+        <v>1.259623501917332</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.001784921927969307</v>
+        <v>0.005310304632910601</v>
       </c>
       <c r="E8">
-        <v>0.0959426488858881</v>
+        <v>0.1201018502219782</v>
       </c>
       <c r="F8">
-        <v>0.4993632655622946</v>
+        <v>0.9144929798200963</v>
       </c>
       <c r="G8">
-        <v>0.002346568604467449</v>
+        <v>0.0007398414531528228</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>1.033998450626143</v>
+        <v>2.481489204647659</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>1.481739276743127</v>
+        <v>4.37896127449433</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.561156618889157</v>
+        <v>2.779492496373706</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.5935937729756802</v>
+        <v>1.69507471924004</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.002347885896298862</v>
+        <v>0.007214520671173119</v>
       </c>
       <c r="E9">
-        <v>0.1003373583811253</v>
+        <v>0.1586727574955766</v>
       </c>
       <c r="F9">
-        <v>0.5678832833093566</v>
+        <v>1.255021356452232</v>
       </c>
       <c r="G9">
-        <v>0.002337374159377399</v>
+        <v>0.0007251103138792776</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>1.277713511473053</v>
+        <v>3.283960593419678</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>1.958399799918084</v>
+        <v>5.876705091681799</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.761291367323622</v>
+        <v>3.825862561279166</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.6971673519410047</v>
+        <v>2.019825238143596</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.002761660278299161</v>
+        <v>0.008690487001828728</v>
       </c>
       <c r="E10">
-        <v>0.1046057654617343</v>
+        <v>0.1921669472417733</v>
       </c>
       <c r="F10">
-        <v>0.620737043840478</v>
+        <v>1.523347081742045</v>
       </c>
       <c r="G10">
-        <v>0.002331229521099414</v>
+        <v>0.0007146754356269592</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>1.45837596672385</v>
+        <v>3.891726433695197</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>2.306143383950541</v>
+        <v>6.98947563196819</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.916787550815457</v>
+        <v>4.655993472581997</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.7441242489681485</v>
+        <v>2.16914064719947</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.002949923056540626</v>
+        <v>0.009387208540076131</v>
       </c>
       <c r="E11">
-        <v>0.1067763425217478</v>
+        <v>0.2088648306749619</v>
       </c>
       <c r="F11">
-        <v>0.6453473143921968</v>
+        <v>1.650647975004446</v>
       </c>
       <c r="G11">
-        <v>0.002328565262924213</v>
+        <v>0.0007099919667560725</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>1.540904482121022</v>
+        <v>4.173537247628047</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>2.463788356980302</v>
+        <v>7.500013289206976</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.989433752520029</v>
+        <v>5.051346756234295</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.7618823371220174</v>
+        <v>2.225959640833764</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.003021216932971527</v>
+        <v>0.00965555616155811</v>
       </c>
       <c r="E12">
-        <v>0.1076314372214568</v>
+        <v>0.2154318789052709</v>
       </c>
       <c r="F12">
-        <v>0.6547496273801556</v>
+        <v>1.699729809162235</v>
       </c>
       <c r="G12">
-        <v>0.002327575098844085</v>
+        <v>0.0007082256298997472</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>1.572204416953383</v>
+        <v>4.281147775942543</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>2.523403785311615</v>
+        <v>7.694117831200259</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>2.017223082984287</v>
+        <v>5.204022856206166</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.7580588676837579</v>
+        <v>2.213709525645982</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.003005862425261796</v>
+        <v>0.00959754622363107</v>
       </c>
       <c r="E13">
-        <v>0.1074457993199331</v>
+        <v>0.2140061038360628</v>
       </c>
       <c r="F13">
-        <v>0.6527209595395078</v>
+        <v>1.68911809572883</v>
       </c>
       <c r="G13">
-        <v>0.002327787516698064</v>
+        <v>0.0007086057555479615</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>1.565461293395742</v>
+        <v>4.257929930395932</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>2.510568197024668</v>
+        <v>7.652276839975201</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>2.011225628075351</v>
+        <v>5.17100230382448</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.7455856910940497</v>
+        <v>2.173809341295964</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.002955788401301618</v>
+        <v>0.009409189589185019</v>
       </c>
       <c r="E14">
-        <v>0.1068460260331037</v>
+        <v>0.2094000046361018</v>
       </c>
       <c r="F14">
-        <v>0.646119177935006</v>
+        <v>1.654667660208958</v>
       </c>
       <c r="G14">
-        <v>0.002328483426732241</v>
+        <v>0.0007098465169061213</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>1.543478588321847</v>
+        <v>4.18237171142124</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>2.468694599746811</v>
+        <v>7.515965912103951</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.991714360693607</v>
+        <v>5.063845532919004</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.7379424374244081</v>
+        <v>2.149406866669835</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.002925116927421811</v>
+        <v>0.009294432366043992</v>
       </c>
       <c r="E15">
-        <v>0.1064829710947706</v>
+        <v>0.2066114947135063</v>
       </c>
       <c r="F15">
-        <v>0.6420862395440707</v>
+        <v>1.633683714118249</v>
       </c>
       <c r="G15">
-        <v>0.00232891212822095</v>
+        <v>0.0007106073944557224</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>1.530019783037915</v>
+        <v>4.136210703154461</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>2.443035140440145</v>
+        <v>7.432577314236511</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.97979973506051</v>
+        <v>4.998608191593007</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.6940953544213357</v>
+        <v>2.010103049951113</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.002749357371222061</v>
+        <v>0.008645535024459861</v>
       </c>
       <c r="E16">
-        <v>0.1044685381705079</v>
+        <v>0.1911078772789452</v>
       </c>
       <c r="F16">
-        <v>0.6191402327384452</v>
+        <v>1.515143212304181</v>
       </c>
       <c r="G16">
-        <v>0.002331406263524889</v>
+        <v>0.0007149826277213613</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>1.452989345951465</v>
+        <v>3.873427377820207</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>2.295829692187453</v>
+        <v>6.956210525514166</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.912078824644368</v>
+        <v>4.630547234422465</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.6671553873597418</v>
+        <v>1.92508351955928</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.002641541843235728</v>
+        <v>0.008254512113495593</v>
       </c>
       <c r="E17">
-        <v>0.103291528352834</v>
+        <v>0.1819936260597501</v>
       </c>
       <c r="F17">
-        <v>0.6052097929921985</v>
+        <v>1.443846691771157</v>
       </c>
       <c r="G17">
-        <v>0.002332969807099393</v>
+        <v>0.0007176816317095869</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>1.405820866799274</v>
+        <v>3.713671138216711</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>2.20538216493091</v>
+        <v>6.665186695423301</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.871027112345701</v>
+        <v>4.4095732423865</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.6516452742277181</v>
+        <v>1.876328493242511</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.002579532580831767</v>
+        <v>0.008031926115528165</v>
       </c>
       <c r="E18">
-        <v>0.1026360698584554</v>
+        <v>0.1768865798548021</v>
       </c>
       <c r="F18">
-        <v>0.5972506393104737</v>
+        <v>1.40332371010031</v>
       </c>
       <c r="G18">
-        <v>0.002333881449130755</v>
+        <v>0.0007192401238741057</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>1.378723281700957</v>
+        <v>3.622277273852859</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>2.153307977228252</v>
+        <v>6.498195107809295</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.847594744034325</v>
+        <v>4.284115277987269</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.6463912655031265</v>
+        <v>1.859844551296732</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.002558537960737794</v>
+        <v>0.007956936592702135</v>
       </c>
       <c r="E19">
-        <v>0.1024178330734316</v>
+        <v>0.1751797001463302</v>
       </c>
       <c r="F19">
-        <v>0.5945649118753238</v>
+        <v>1.389683108979682</v>
       </c>
       <c r="G19">
-        <v>0.002334192236870523</v>
+        <v>0.0007197689046782236</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>1.369554124832575</v>
+        <v>3.591414016939922</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>2.135667854263971</v>
+        <v>6.44171860314853</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.83969161940206</v>
+        <v>4.241907251410055</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.6700247450202426</v>
+        <v>1.934118552135516</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.002653018656982198</v>
+        <v>0.008295891203680128</v>
       </c>
       <c r="E20">
-        <v>0.1034145935009221</v>
+        <v>0.1829496293592427</v>
       </c>
       <c r="F20">
-        <v>0.6066871888612866</v>
+        <v>1.45138530308148</v>
       </c>
       <c r="G20">
-        <v>0.002332802089239892</v>
+        <v>0.0007173937003840228</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>1.410838680635095</v>
+        <v>3.730625487565021</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>2.215015774858841</v>
+        <v>6.696124488228662</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.875378523730603</v>
+        <v>4.43292367056597</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.7492500067679089</v>
+        <v>2.185521074878295</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.002970496293382752</v>
+        <v>0.009464384191069541</v>
       </c>
       <c r="E21">
-        <v>0.1070212925339931</v>
+        <v>0.2107460119448348</v>
       </c>
       <c r="F21">
-        <v>0.6480560188925608</v>
+        <v>1.664761769274975</v>
       </c>
       <c r="G21">
-        <v>0.002328278513700656</v>
+        <v>0.0007094818965773232</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>1.54993414426562</v>
+        <v>4.204539613556989</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>2.480996119331792</v>
+        <v>7.555981391082412</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.997437658612398</v>
+        <v>5.09523604895702</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.8008912528991345</v>
+        <v>2.351465273542317</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.003178002116694501</v>
+        <v>0.01025490420303754</v>
       </c>
       <c r="E22">
-        <v>0.1095717857874163</v>
+        <v>0.2303540059056317</v>
       </c>
       <c r="F22">
-        <v>0.6755770338646556</v>
+        <v>1.80938834320844</v>
       </c>
       <c r="G22">
-        <v>0.002325431235317889</v>
+        <v>0.0007043519212725425</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>1.641121334320758</v>
+        <v>4.519556258703972</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>2.65435448866171</v>
+        <v>8.122550532250358</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>2.078843583671414</v>
+        <v>5.545606167746143</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.7733420679550136</v>
+        <v>2.262730356726081</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.003067251530165294</v>
+        <v>0.009830199285154606</v>
       </c>
       <c r="E23">
-        <v>0.1081927715060402</v>
+        <v>0.219744359914273</v>
       </c>
       <c r="F23">
-        <v>0.6608437815068413</v>
+        <v>1.731680578578008</v>
       </c>
       <c r="G23">
-        <v>0.002326940928146354</v>
+        <v>0.0007070868478961902</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>1.592427784857506</v>
+        <v>4.350896093902492</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>2.561874270899523</v>
+        <v>7.819685135559013</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>2.035244574471449</v>
+        <v>5.303481566177652</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.6687275768046561</v>
+        <v>1.930033431798449</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.002647830065903634</v>
+        <v>0.008277176871882119</v>
       </c>
       <c r="E24">
-        <v>0.1033588896620614</v>
+        <v>0.1825170089298211</v>
       </c>
       <c r="F24">
-        <v>0.6060191036701212</v>
+        <v>1.4479756534367</v>
       </c>
       <c r="G24">
-        <v>0.002332877874887201</v>
+        <v>0.0007175238528147045</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>1.408570063974196</v>
+        <v>3.722959027420899</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>2.210660652281007</v>
+        <v>6.682136520711197</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.873410725215365</v>
+        <v>4.422362042293628</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.555314266893447</v>
+        <v>1.576591379289397</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.002195555114017367</v>
+        <v>0.006688390657952681</v>
       </c>
       <c r="E25">
-        <v>0.09896687188386721</v>
+        <v>0.1474357044772567</v>
       </c>
       <c r="F25">
-        <v>0.5489123345535347</v>
+        <v>1.160114449794861</v>
       </c>
       <c r="G25">
-        <v>0.002339753790606802</v>
+        <v>0.0007290209186462025</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>1.211496843730842</v>
+        <v>3.064101773384721</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>1.829874998367501</v>
+        <v>5.469848602663717</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.705687799287432</v>
+        <v>3.533370756965951</v>
       </c>
     </row>
   </sheetData>
